--- a/admin/arnsberg/kreis-dortmund.xlsx
+++ b/admin/arnsberg/kreis-dortmund.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6EB01E4-9546-43C9-BA09-DBAF89C46557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B6305A-9C88-439E-BB17-0B9CF33F41DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17" yWindow="420" windowWidth="32674" windowHeight="17494" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,7 +14,7 @@
     <sheet name="Bürgermeistereien" sheetId="4" r:id="rId4"/>
     <sheet name="Legal" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1918" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="785">
   <si>
     <t>Kreis</t>
   </si>
@@ -2382,6 +2382,9 @@
   </si>
   <si>
     <t>#Westhoven aus Kartenraster erschlossen</t>
+  </si>
+  <si>
+    <t>KA Herne</t>
   </si>
 </sst>
 </file>
@@ -3214,8 +3217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.4609375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4707,6 +4710,9 @@
       <c r="G48" t="s">
         <v>13</v>
       </c>
+      <c r="H48" t="s">
+        <v>13</v>
+      </c>
       <c r="I48" t="s">
         <v>10</v>
       </c>
@@ -4738,6 +4744,9 @@
       <c r="G49" t="s">
         <v>13</v>
       </c>
+      <c r="H49" t="s">
+        <v>13</v>
+      </c>
       <c r="I49" t="s">
         <v>10</v>
       </c>
@@ -4831,6 +4840,9 @@
       <c r="G52" t="s">
         <v>13</v>
       </c>
+      <c r="H52" t="s">
+        <v>13</v>
+      </c>
       <c r="I52" t="s">
         <v>10</v>
       </c>
@@ -4862,6 +4874,9 @@
       <c r="G53" t="s">
         <v>13</v>
       </c>
+      <c r="H53" t="s">
+        <v>13</v>
+      </c>
       <c r="I53" t="s">
         <v>10</v>
       </c>
@@ -4893,6 +4908,9 @@
       <c r="G54" t="s">
         <v>13</v>
       </c>
+      <c r="H54" t="s">
+        <v>13</v>
+      </c>
       <c r="I54" t="s">
         <v>10</v>
       </c>
@@ -5017,8 +5035,8 @@
       <c r="G58" t="s">
         <v>13</v>
       </c>
-      <c r="I58" s="4" t="s">
-        <v>11</v>
+      <c r="I58" s="19" t="s">
+        <v>784</v>
       </c>
       <c r="K58" t="s">
         <v>773</v>
@@ -5048,8 +5066,8 @@
       <c r="G59" t="s">
         <v>13</v>
       </c>
-      <c r="I59" s="4" t="s">
-        <v>11</v>
+      <c r="I59" s="19" t="s">
+        <v>784</v>
       </c>
       <c r="K59" t="s">
         <v>773</v>
@@ -5141,8 +5159,8 @@
       <c r="G62" t="s">
         <v>13</v>
       </c>
-      <c r="I62" s="4" t="s">
-        <v>11</v>
+      <c r="I62" s="19" t="s">
+        <v>784</v>
       </c>
       <c r="K62" t="s">
         <v>773</v>
@@ -5172,8 +5190,8 @@
       <c r="G63" t="s">
         <v>13</v>
       </c>
-      <c r="I63" s="4" t="s">
-        <v>11</v>
+      <c r="I63" s="19" t="s">
+        <v>784</v>
       </c>
       <c r="K63" t="s">
         <v>773</v>
@@ -5203,8 +5221,8 @@
       <c r="G64" t="s">
         <v>13</v>
       </c>
-      <c r="I64" s="4" t="s">
-        <v>11</v>
+      <c r="I64" s="19" t="s">
+        <v>784</v>
       </c>
       <c r="K64" t="s">
         <v>773</v>
@@ -5234,8 +5252,8 @@
       <c r="G65" t="s">
         <v>13</v>
       </c>
-      <c r="I65" s="4" t="s">
-        <v>11</v>
+      <c r="I65" s="19" t="s">
+        <v>784</v>
       </c>
       <c r="K65" t="s">
         <v>773</v>
@@ -12129,11 +12147,11 @@
       </c>
       <c r="B2" s="12">
         <f>COUNTIFS(Flure[geplant],"x",Flure[erledigt],"x")</f>
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C2" s="14">
         <f>B2/B1</f>
-        <v>0.84697508896797158</v>
+        <v>0.86476868327402134</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -12160,11 +12178,11 @@
       </c>
       <c r="B5" s="12">
         <f>SUMIFS(Flure[Parzellen],Flure[geplant],"x",Flure[erledigt],"x")</f>
-        <v>50216</v>
+        <v>51359</v>
       </c>
       <c r="C5" s="14">
         <f>B5/B3</f>
-        <v>0.8438812892817531</v>
+        <v>0.86308943635935875</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
@@ -12173,7 +12191,7 @@
       </c>
       <c r="B6" s="12">
         <f>B3-B5</f>
-        <v>9290</v>
+        <v>8147</v>
       </c>
       <c r="C6" s="14"/>
     </row>

--- a/admin/arnsberg/kreis-dortmund.xlsx
+++ b/admin/arnsberg/kreis-dortmund.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B6305A-9C88-439E-BB17-0B9CF33F41DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1B65F1-DE1E-4993-A77E-DC319D22D76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17" yWindow="420" windowWidth="32674" windowHeight="17494" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="1440" windowWidth="23649" windowHeight="16303" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fluren" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Bürgermeistereien" sheetId="4" r:id="rId4"/>
     <sheet name="Legal" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1947" uniqueCount="789">
   <si>
     <t>Kreis</t>
   </si>
@@ -2385,6 +2385,18 @@
   </si>
   <si>
     <t>KA Herne</t>
+  </si>
+  <si>
+    <t>Spätere Neuzeichnung, einzelne Grenzen des Urkatasters fehlen</t>
+  </si>
+  <si>
+    <t>Parzellen ab 152 nur in Rot erfasst, mehrere Parzellen fehlen. Wahrscheinlich Gemeinheitsteilung.</t>
+  </si>
+  <si>
+    <t>Karte nur aus den 1870ern überliefert, Urkarte verschollen</t>
+  </si>
+  <si>
+    <t>Grobe Rekonstruktion auf Basis der Stückvermessungshandrisse</t>
   </si>
 </sst>
 </file>
@@ -2394,7 +2406,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00\ %"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2452,8 +2464,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2493,6 +2512,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -2606,15 +2630,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2665,13 +2690,15 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="5" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="6" applyBorder="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Excel Built-in Bad" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Excel Built-in Calculation" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Excel Built-in Good" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Excel Built-in Neutral" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Gut" xfId="5" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="6" builtinId="28"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
@@ -3217,8 +3244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+    <sheetView tabSelected="1" topLeftCell="A187" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H220" sqref="H220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.4609375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4778,8 +4805,14 @@
       <c r="G50" t="s">
         <v>13</v>
       </c>
+      <c r="H50" t="s">
+        <v>13</v>
+      </c>
       <c r="I50" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="J50" t="s">
+        <v>785</v>
       </c>
       <c r="K50" t="s">
         <v>773</v>
@@ -4809,6 +4842,9 @@
       <c r="G51" t="s">
         <v>13</v>
       </c>
+      <c r="H51" t="s">
+        <v>13</v>
+      </c>
       <c r="I51" t="s">
         <v>10</v>
       </c>
@@ -4942,8 +4978,14 @@
       <c r="G55" t="s">
         <v>13</v>
       </c>
+      <c r="H55" t="s">
+        <v>13</v>
+      </c>
       <c r="I55" s="4" t="s">
         <v>119</v>
+      </c>
+      <c r="J55" t="s">
+        <v>788</v>
       </c>
       <c r="K55" t="s">
         <v>773</v>
@@ -4973,6 +5015,9 @@
       <c r="G56" t="s">
         <v>13</v>
       </c>
+      <c r="H56" t="s">
+        <v>13</v>
+      </c>
       <c r="I56" t="s">
         <v>10</v>
       </c>
@@ -5004,8 +5049,14 @@
       <c r="G57" t="s">
         <v>13</v>
       </c>
+      <c r="H57" t="s">
+        <v>13</v>
+      </c>
       <c r="I57" t="s">
         <v>10</v>
+      </c>
+      <c r="J57" t="s">
+        <v>786</v>
       </c>
       <c r="K57" t="s">
         <v>773</v>
@@ -5035,6 +5086,9 @@
       <c r="G58" t="s">
         <v>13</v>
       </c>
+      <c r="H58" t="s">
+        <v>13</v>
+      </c>
       <c r="I58" s="19" t="s">
         <v>784</v>
       </c>
@@ -5066,6 +5120,9 @@
       <c r="G59" t="s">
         <v>13</v>
       </c>
+      <c r="H59" t="s">
+        <v>13</v>
+      </c>
       <c r="I59" s="19" t="s">
         <v>784</v>
       </c>
@@ -5097,8 +5154,14 @@
       <c r="G60" t="s">
         <v>13</v>
       </c>
-      <c r="I60" s="4" t="s">
-        <v>11</v>
+      <c r="H60" t="s">
+        <v>13</v>
+      </c>
+      <c r="I60" s="30" t="s">
+        <v>784</v>
+      </c>
+      <c r="J60" t="s">
+        <v>787</v>
       </c>
       <c r="K60" t="s">
         <v>773</v>
@@ -5128,8 +5191,14 @@
       <c r="G61" t="s">
         <v>13</v>
       </c>
-      <c r="I61" s="4" t="s">
-        <v>11</v>
+      <c r="H61" t="s">
+        <v>13</v>
+      </c>
+      <c r="I61" s="30" t="s">
+        <v>784</v>
+      </c>
+      <c r="J61" t="s">
+        <v>787</v>
       </c>
       <c r="K61" t="s">
         <v>773</v>
@@ -5159,6 +5228,9 @@
       <c r="G62" t="s">
         <v>13</v>
       </c>
+      <c r="H62" t="s">
+        <v>13</v>
+      </c>
       <c r="I62" s="19" t="s">
         <v>784</v>
       </c>
@@ -5190,6 +5262,9 @@
       <c r="G63" t="s">
         <v>13</v>
       </c>
+      <c r="H63" t="s">
+        <v>13</v>
+      </c>
       <c r="I63" s="19" t="s">
         <v>784</v>
       </c>
@@ -5221,6 +5296,9 @@
       <c r="G64" t="s">
         <v>13</v>
       </c>
+      <c r="H64" t="s">
+        <v>13</v>
+      </c>
       <c r="I64" s="19" t="s">
         <v>784</v>
       </c>
@@ -5252,6 +5330,9 @@
       <c r="G65" t="s">
         <v>13</v>
       </c>
+      <c r="H65" t="s">
+        <v>13</v>
+      </c>
       <c r="I65" s="19" t="s">
         <v>784</v>
       </c>
@@ -9951,6 +10032,9 @@
       <c r="G213" t="s">
         <v>13</v>
       </c>
+      <c r="H213" t="s">
+        <v>13</v>
+      </c>
       <c r="I213" s="9" t="s">
         <v>420</v>
       </c>
@@ -9979,6 +10063,9 @@
       <c r="G214" t="s">
         <v>13</v>
       </c>
+      <c r="H214" t="s">
+        <v>13</v>
+      </c>
       <c r="I214" s="9" t="s">
         <v>422</v>
       </c>
@@ -10007,6 +10094,9 @@
       <c r="G215" t="s">
         <v>13</v>
       </c>
+      <c r="H215" t="s">
+        <v>13</v>
+      </c>
       <c r="I215" s="9" t="s">
         <v>424</v>
       </c>
@@ -10035,6 +10125,9 @@
       <c r="G216" t="s">
         <v>13</v>
       </c>
+      <c r="H216" t="s">
+        <v>13</v>
+      </c>
       <c r="I216" s="9" t="s">
         <v>426</v>
       </c>
@@ -10063,6 +10156,9 @@
       <c r="G217" t="s">
         <v>13</v>
       </c>
+      <c r="H217" t="s">
+        <v>13</v>
+      </c>
       <c r="I217" s="9" t="s">
         <v>428</v>
       </c>
@@ -10117,6 +10213,9 @@
         <v>429</v>
       </c>
       <c r="G219" t="s">
+        <v>13</v>
+      </c>
+      <c r="H219" t="s">
         <v>13</v>
       </c>
       <c r="I219" s="9" t="s">
@@ -12147,11 +12246,11 @@
       </c>
       <c r="B2" s="12">
         <f>COUNTIFS(Flure[geplant],"x",Flure[erledigt],"x")</f>
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="C2" s="14">
         <f>B2/B1</f>
-        <v>0.86476868327402134</v>
+        <v>0.93238434163701067</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -12178,11 +12277,11 @@
       </c>
       <c r="B5" s="12">
         <f>SUMIFS(Flure[Parzellen],Flure[geplant],"x",Flure[erledigt],"x")</f>
-        <v>51359</v>
+        <v>55714</v>
       </c>
       <c r="C5" s="14">
         <f>B5/B3</f>
-        <v>0.86308943635935875</v>
+        <v>0.93627533357980708</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
@@ -12191,7 +12290,7 @@
       </c>
       <c r="B6" s="12">
         <f>B3-B5</f>
-        <v>8147</v>
+        <v>3792</v>
       </c>
       <c r="C6" s="14"/>
     </row>
